--- a/Results_BMR-Stain_Prediction.xlsx
+++ b/Results_BMR-Stain_Prediction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/akt5b_umsystem_edu/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD4948F-E51E-413C-8F35-BD9F198E3D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{8BD4948F-E51E-413C-8F35-BD9F198E3D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5D72326-7D81-42B6-B446-A08D30718E34}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D031BF26-89CC-4297-A09C-7140679F83E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>CNN</t>
   </si>
@@ -62,13 +62,10 @@
     <t>EfficientNET</t>
   </si>
   <si>
-    <t>ResNET</t>
-  </si>
-  <si>
     <t>DeepLearning Model</t>
   </si>
   <si>
-    <t>Try more epochs</t>
+    <t>Trying more epochs</t>
   </si>
 </sst>
 </file>
@@ -467,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF12A674-F143-4016-9404-7D0B4AB5ED5A}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +487,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -522,35 +519,42 @@
         <v>0.39</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="2">
+        <v>2.36</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B5" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
